--- a/data/Datos 3era Infografía.xlsx
+++ b/data/Datos 3era Infografía.xlsx
@@ -5,19 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eladiomontero\Desktop\Trabajo\MICITT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eladiomontero\Documents\Grupo Inco\inco_micitt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades de innovacion" sheetId="1" r:id="rId1"/>
     <sheet name="Impacto Innovacion" sheetId="2" r:id="rId2"/>
     <sheet name="% Presupuesto I+D" sheetId="3" r:id="rId3"/>
     <sheet name="Factores de no Innovar" sheetId="4" r:id="rId4"/>
-    <sheet name="Factores no I+D" sheetId="5" r:id="rId5"/>
+    <sheet name="Factores no innovar Innovadora" sheetId="7" r:id="rId5"/>
+    <sheet name="Factores no Innovar No Innovado" sheetId="6" r:id="rId6"/>
+    <sheet name="Factores no I+D" sheetId="5" r:id="rId7"/>
+    <sheet name="Factores Alto No I+D" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Factores de no Innovar'!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
   <si>
     <t>Actividad</t>
   </si>
@@ -159,9 +165,6 @@
     <t>Grandes</t>
   </si>
   <si>
-    <t>Promedio nacional</t>
-  </si>
-  <si>
     <t>Tamano Empresa</t>
   </si>
   <si>
@@ -415,6 +418,15 @@
   </si>
   <si>
     <t>media o alta NO I+D</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Empresas que Invirtieron en I+D</t>
+  </si>
+  <si>
+    <t>Empresas que No Invirtieron en I+D</t>
   </si>
 </sst>
 </file>
@@ -773,11 +785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-458702032"/>
-        <c:axId val="-458723792"/>
+        <c:axId val="1961841088"/>
+        <c:axId val="1961843808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-458702032"/>
+        <c:axId val="1961841088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-458723792"/>
+        <c:crossAx val="1961843808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -828,7 +840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-458723792"/>
+        <c:axId val="1961843808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-458702032"/>
+        <c:crossAx val="1961841088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +1829,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2072,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,7 +2220,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2415,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2440,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>2010</v>
@@ -2492,23 +2504,6 @@
       </c>
       <c r="E4">
         <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>0.38</v>
-      </c>
-      <c r="C5">
-        <v>0.33</v>
-      </c>
-      <c r="D5">
-        <v>1.31</v>
-      </c>
-      <c r="E5">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2517,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,96 +2528,96 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>26.6</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>63.4</v>
       </c>
       <c r="E2">
-        <v>23.1</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>69.2</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>23.3</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>30.7</v>
+        <v>38.5</v>
       </c>
       <c r="F3">
-        <v>61.6</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="D4">
-        <v>74.3</v>
+        <v>63.3</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F4">
-        <v>74.3</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>16.7</v>
+        <v>23.3</v>
       </c>
       <c r="D5">
-        <v>73.400000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="E5">
         <v>33.299999999999997</v>
@@ -2633,110 +2628,110 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>43.3</v>
+        <v>16.7</v>
       </c>
       <c r="D6">
-        <v>46.7</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E6">
-        <v>20.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F6">
-        <v>71.8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>33.4</v>
       </c>
       <c r="D7">
-        <v>86.6</v>
+        <v>56.7</v>
       </c>
       <c r="E7">
-        <v>15.4</v>
+        <v>30.7</v>
       </c>
       <c r="F7">
-        <v>76.900000000000006</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>23.3</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="E8">
-        <v>2.6</v>
+        <v>30.7</v>
       </c>
       <c r="F8">
-        <v>89.8</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>26.7</v>
+        <v>23.3</v>
       </c>
       <c r="D9">
-        <v>63.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="E9">
-        <v>33.299999999999997</v>
+        <v>30.7</v>
       </c>
       <c r="F9">
-        <v>58.9</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>16.7</v>
+        <v>26.6</v>
       </c>
       <c r="D10">
-        <v>73.3</v>
+        <v>63.3</v>
       </c>
       <c r="E10">
-        <v>5.2</v>
+        <v>28.2</v>
       </c>
       <c r="F10">
-        <v>87.2</v>
+        <v>64.099999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>26.6</v>
@@ -2753,110 +2748,110 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>15.4</v>
+        <v>23.1</v>
       </c>
       <c r="F12">
-        <v>76.900000000000006</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>26.7</v>
       </c>
       <c r="D13">
-        <v>63.3</v>
+        <v>63.4</v>
       </c>
       <c r="E13">
-        <v>15.4</v>
+        <v>23.1</v>
       </c>
       <c r="F13">
-        <v>76.900000000000006</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>26.6</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>63.3</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>28.2</v>
+        <v>23.1</v>
       </c>
       <c r="F14">
-        <v>64.099999999999994</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>33.4</v>
+        <v>43.3</v>
       </c>
       <c r="D15">
-        <v>56.7</v>
+        <v>46.7</v>
       </c>
       <c r="E15">
-        <v>30.7</v>
+        <v>20.5</v>
       </c>
       <c r="F15">
-        <v>61.5</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C16">
-        <v>23.3</v>
+        <v>13.4</v>
       </c>
       <c r="D16">
-        <v>66.599999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="E16">
-        <v>30.7</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>61.6</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>23.3</v>
@@ -2873,90 +2868,90 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>26.7</v>
       </c>
       <c r="D18">
-        <v>63.4</v>
+        <v>63.3</v>
       </c>
       <c r="E18">
-        <v>23.1</v>
+        <v>15.4</v>
       </c>
       <c r="F18">
-        <v>69.2</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C19">
-        <v>23.3</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>33.299999999999997</v>
+        <v>15.4</v>
       </c>
       <c r="F19">
-        <v>58.9</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>3.3</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>86.6</v>
       </c>
       <c r="E20">
-        <v>38.5</v>
+        <v>15.4</v>
       </c>
       <c r="F20">
-        <v>53.8</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>26.6</v>
+        <v>16.7</v>
       </c>
       <c r="D21">
-        <v>63.4</v>
+        <v>73.3</v>
       </c>
       <c r="E21">
-        <v>41</v>
+        <v>5.2</v>
       </c>
       <c r="F21">
-        <v>51.3</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -2973,25 +2968,30 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E23">
-        <v>23.1</v>
+        <v>2.6</v>
       </c>
       <c r="F23">
-        <v>69.3</v>
+        <v>89.8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F23">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="C2:F23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3010,216 +3010,506 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>26.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
       </c>
       <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
       </c>
       <c r="C6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
       </c>
       <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
       <c r="C8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>100</v>
       </c>
       <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
       <c r="C10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
         <v>123</v>
-      </c>
-      <c r="E12" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/Datos 3era Infografía.xlsx
+++ b/data/Datos 3era Infografía.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eladiomontero\Documents\Grupo Inco\inco_micitt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inco_micitt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Factores de no Innovar'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="216">
   <si>
     <t>Actividad</t>
   </si>
@@ -427,12 +427,267 @@
   </si>
   <si>
     <t>Empresas que No Invirtieron en I+D</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>58.1</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>44.6</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>48.9</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>57.4</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>66.6</t>
+  </si>
+  <si>
+    <t>32.9</t>
+  </si>
+  <si>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>65.6</t>
+  </si>
+  <si>
+    <t>49.8</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>68.6</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>29.6</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>19.8</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>60.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,9 +771,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -530,7 +785,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -556,7 +810,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -635,6 +889,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D1F-4ABE-84BD-95BB13F3DF52}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -705,6 +964,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D1F-4ABE-84BD-95BB13F3DF52}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -775,6 +1039,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D1F-4ABE-84BD-95BB13F3DF52}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -829,7 +1098,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1961843808"/>
@@ -888,7 +1157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1961841088"/>
@@ -905,7 +1174,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -931,7 +1199,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -961,7 +1229,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1545,7 +1813,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1826,16 +2100,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -1866,180 +2140,180 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>17.3</v>
-      </c>
-      <c r="C2">
-        <v>58.1</v>
-      </c>
-      <c r="D2">
-        <v>43.9</v>
-      </c>
-      <c r="E2">
-        <v>20.3</v>
-      </c>
-      <c r="F2">
-        <v>25.9</v>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>22.7</v>
-      </c>
-      <c r="C3">
-        <v>13.3</v>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F3">
-        <v>6.3</v>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>27.7</v>
-      </c>
-      <c r="C4">
-        <v>29.5</v>
-      </c>
-      <c r="D4">
-        <v>44.6</v>
-      </c>
-      <c r="E4">
-        <v>7.9</v>
-      </c>
-      <c r="F4">
-        <v>9.1999999999999993</v>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>29.1</v>
-      </c>
-      <c r="C5">
-        <v>13.1</v>
-      </c>
-      <c r="D5">
-        <v>24.3</v>
-      </c>
-      <c r="E5">
-        <v>28.8</v>
-      </c>
-      <c r="F5">
-        <v>17.600000000000001</v>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C6">
-        <v>12.8</v>
-      </c>
-      <c r="D6">
-        <v>24.3</v>
-      </c>
-      <c r="E6">
-        <v>26.8</v>
-      </c>
-      <c r="F6">
-        <v>16.7</v>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>44.1</v>
-      </c>
-      <c r="C7">
-        <v>17.3</v>
-      </c>
-      <c r="D7">
-        <v>18.2</v>
-      </c>
-      <c r="E7">
-        <v>9.9</v>
-      </c>
-      <c r="F7">
-        <v>6.8</v>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>48.9</v>
-      </c>
-      <c r="C8">
-        <v>16.7</v>
-      </c>
-      <c r="D8">
-        <v>21.6</v>
-      </c>
-      <c r="E8">
-        <v>6.1</v>
-      </c>
-      <c r="F8">
-        <v>4.5</v>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>57.4</v>
-      </c>
-      <c r="C9">
-        <v>22.7</v>
-      </c>
-      <c r="D9">
-        <v>27.3</v>
-      </c>
-      <c r="E9">
-        <v>18.2</v>
-      </c>
-      <c r="F9">
-        <v>11.5</v>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="C10">
-        <v>32.9</v>
-      </c>
-      <c r="D10">
-        <v>46.6</v>
-      </c>
-      <c r="E10">
-        <v>35.4</v>
-      </c>
-      <c r="F10">
-        <v>22.7</v>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,14 +2326,756 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>12.4</v>
-      </c>
-      <c r="E11">
-        <v>13.5</v>
-      </c>
-      <c r="F11">
-        <v>7.2</v>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"{name:'"&amp;A2&amp;"',  data:["</f>
+        <v>{name:'I+D externa',  data:[</v>
+      </c>
+      <c r="B14" t="str">
+        <f>B2&amp;","</f>
+        <v>17.3,</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:E14" si="0">C2&amp;","</f>
+        <v>58.1,</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>43.9,</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>20.3,</v>
+      </c>
+      <c r="F14" t="str">
+        <f>F2&amp;"]},"</f>
+        <v>25.9]},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" ref="A15:A23" si="1">"{name:'"&amp;A3&amp;"',  data:["</f>
+        <v>{name:'Consultorías (para cambios novedosos)',  data:[</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ref="B15:E23" si="2">B3&amp;","</f>
+        <v>22.7,</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>13.3,</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>7,</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>2.3,</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:F23" si="3">F3&amp;"]},"</f>
+        <v>6.3]},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:'Ingeniería y Diseño Industrial (in house)',  data:[</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>27.7,</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v>29.5,</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>44.6,</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>7.9,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>9.2]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:'Contratación de Tecnología (existente)',  data:[</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>29.1,</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>13.1,</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>24.3,</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>28.8,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>17.6]},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:'Gestión (in house)',  data:[</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>38.3,</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>12.8,</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>24.3,</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>26.8,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>16.7]},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:'Software',  data:[</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="2"/>
+        <v>44.1,</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>17.3,</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>18.2,</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>9.9,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>6.8]},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:'Hardware',  data:[</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>48.9,</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>16.7,</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>21.6,</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>6.1,</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>4.5]},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:'Bienes de Capital (maquinaria y equipo)',  data:[</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="2"/>
+        <v>57.4,</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>22.7,</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>27.3,</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>18.2,</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>11.5]},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>"{name:'"&amp;A10&amp;"',  data:["</f>
+        <v>{name:'Capacitación',  data:[</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="2"/>
+        <v>66.6,</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>32.9,</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>46.6,</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>35.4,</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>22.7]},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:'I+D interna',  data:[</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="2"/>
+        <v>70,</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v>9,</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>12.4,</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>13.5,</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>7.2]},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f>"'"&amp;B25&amp;"',"</f>
+        <v>'I+D externa',</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ref="C32:K32" si="4">"'"&amp;C25&amp;"',"</f>
+        <v>'Consultorías (para cambios novedosos)',</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="4"/>
+        <v>'Ingeniería y Diseño Industrial (in house)',</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>'Contratación de Tecnología (existente)',</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="4"/>
+        <v>'Gestión (in house)',</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="4"/>
+        <v>'Software',</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v>'Hardware',</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v>'Bienes de Capital (maquinaria y equipo)',</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>'Capacitación',</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>'I+D interna',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>"{name:'"&amp;A26&amp;"',  data:["</f>
+        <v>{name:'A cualquier tipo de innovación',  data:[</v>
+      </c>
+      <c r="B33" t="str">
+        <f>B26&amp;","</f>
+        <v>17.3,</v>
+      </c>
+      <c r="C33" t="str">
+        <f>C26&amp;","</f>
+        <v>22.7,</v>
+      </c>
+      <c r="D33" t="str">
+        <f>D26&amp;","</f>
+        <v>27.7,</v>
+      </c>
+      <c r="E33" t="str">
+        <f>E26&amp;","</f>
+        <v>29.1,</v>
+      </c>
+      <c r="F33" t="str">
+        <f>F26&amp;","</f>
+        <v>38.3,</v>
+      </c>
+      <c r="G33" t="str">
+        <f>G26&amp;","</f>
+        <v>44.1,</v>
+      </c>
+      <c r="H33" t="str">
+        <f>H26&amp;","</f>
+        <v>48.9,</v>
+      </c>
+      <c r="I33" t="str">
+        <f>I26&amp;","</f>
+        <v>57.4,</v>
+      </c>
+      <c r="J33" t="str">
+        <f>J26&amp;","</f>
+        <v>66.6,</v>
+      </c>
+      <c r="K33" t="str">
+        <f>K26&amp;"]},"</f>
+        <v>70]},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>"{name:'"&amp;A27&amp;"',  data:["</f>
+        <v>{name:'Producto',  data:[</v>
+      </c>
+      <c r="B34" t="str">
+        <f>B27&amp;","</f>
+        <v>58.1,</v>
+      </c>
+      <c r="C34" t="str">
+        <f>C27&amp;","</f>
+        <v>13.3,</v>
+      </c>
+      <c r="D34" t="str">
+        <f>D27&amp;","</f>
+        <v>29.5,</v>
+      </c>
+      <c r="E34" t="str">
+        <f>E27&amp;","</f>
+        <v>13.1,</v>
+      </c>
+      <c r="F34" t="str">
+        <f>F27&amp;","</f>
+        <v>12.8,</v>
+      </c>
+      <c r="G34" t="str">
+        <f>G27&amp;","</f>
+        <v>17.3,</v>
+      </c>
+      <c r="H34" t="str">
+        <f>H27&amp;","</f>
+        <v>16.7,</v>
+      </c>
+      <c r="I34" t="str">
+        <f>I27&amp;","</f>
+        <v>22.7,</v>
+      </c>
+      <c r="J34" t="str">
+        <f>J27&amp;","</f>
+        <v>32.9,</v>
+      </c>
+      <c r="K34" t="str">
+        <f>K27&amp;"]},"</f>
+        <v>9]},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>"{name:'"&amp;A28&amp;"',  data:["</f>
+        <v>{name:'Proceso',  data:[</v>
+      </c>
+      <c r="B35" t="str">
+        <f>B28&amp;","</f>
+        <v>43.9,</v>
+      </c>
+      <c r="C35" t="str">
+        <f>C28&amp;","</f>
+        <v>7,</v>
+      </c>
+      <c r="D35" t="str">
+        <f>D28&amp;","</f>
+        <v>44.6,</v>
+      </c>
+      <c r="E35" t="str">
+        <f>E28&amp;","</f>
+        <v>24.3,</v>
+      </c>
+      <c r="F35" t="str">
+        <f>F28&amp;","</f>
+        <v>24.3,</v>
+      </c>
+      <c r="G35" t="str">
+        <f>G28&amp;","</f>
+        <v>18.2,</v>
+      </c>
+      <c r="H35" t="str">
+        <f>H28&amp;","</f>
+        <v>21.6,</v>
+      </c>
+      <c r="I35" t="str">
+        <f>I28&amp;","</f>
+        <v>27.3,</v>
+      </c>
+      <c r="J35" t="str">
+        <f>J28&amp;","</f>
+        <v>46.6,</v>
+      </c>
+      <c r="K35" t="str">
+        <f>K28&amp;"]},"</f>
+        <v>12.4]},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>"{name:'"&amp;A29&amp;"',  data:["</f>
+        <v>{name:'Organización',  data:[</v>
+      </c>
+      <c r="B36" t="str">
+        <f>B29&amp;","</f>
+        <v>20.3,</v>
+      </c>
+      <c r="C36" t="str">
+        <f>C29&amp;","</f>
+        <v>2.3,</v>
+      </c>
+      <c r="D36" t="str">
+        <f>D29&amp;","</f>
+        <v>7.9,</v>
+      </c>
+      <c r="E36" t="str">
+        <f>E29&amp;","</f>
+        <v>28.8,</v>
+      </c>
+      <c r="F36" t="str">
+        <f>F29&amp;","</f>
+        <v>26.8,</v>
+      </c>
+      <c r="G36" t="str">
+        <f>G29&amp;","</f>
+        <v>9.9,</v>
+      </c>
+      <c r="H36" t="str">
+        <f>H29&amp;","</f>
+        <v>6.1,</v>
+      </c>
+      <c r="I36" t="str">
+        <f>I29&amp;","</f>
+        <v>18.2,</v>
+      </c>
+      <c r="J36" t="str">
+        <f>J29&amp;","</f>
+        <v>35.4,</v>
+      </c>
+      <c r="K36" t="str">
+        <f>K29&amp;"]},"</f>
+        <v>13.5]},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>"{name:'"&amp;A30&amp;"',  data:["</f>
+        <v>{name:'Comercialización',  data:[</v>
+      </c>
+      <c r="B37" t="str">
+        <f>B30&amp;","</f>
+        <v>25.9,</v>
+      </c>
+      <c r="C37" t="str">
+        <f>C30&amp;","</f>
+        <v>6.3,</v>
+      </c>
+      <c r="D37" t="str">
+        <f>D30&amp;","</f>
+        <v>9.2,</v>
+      </c>
+      <c r="E37" t="str">
+        <f>E30&amp;","</f>
+        <v>17.6,</v>
+      </c>
+      <c r="F37" t="str">
+        <f>F30&amp;","</f>
+        <v>16.7,</v>
+      </c>
+      <c r="G37" t="str">
+        <f>G30&amp;","</f>
+        <v>6.8,</v>
+      </c>
+      <c r="H37" t="str">
+        <f>H30&amp;","</f>
+        <v>4.5,</v>
+      </c>
+      <c r="I37" t="str">
+        <f>I30&amp;","</f>
+        <v>11.5,</v>
+      </c>
+      <c r="J37" t="str">
+        <f>J30&amp;","</f>
+        <v>22.7,</v>
+      </c>
+      <c r="K37" t="str">
+        <f>K30&amp;"]},"</f>
+        <v>7.2]},</v>
       </c>
     </row>
   </sheetData>
@@ -2069,15 +3085,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,7 +3417,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2418,6 +3435,617 @@
       </c>
       <c r="F17">
         <v>60.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22">
+        <v>41</v>
+      </c>
+      <c r="J22">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>195</v>
+      </c>
+      <c r="P23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="s">
+        <v>203</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>205</v>
+      </c>
+      <c r="P24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25">
+        <v>14</v>
+      </c>
+      <c r="O25" t="s">
+        <v>204</v>
+      </c>
+      <c r="P25" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f>"'"&amp;B21&amp;"',"</f>
+        <v>'Mejoró la calidad de los productos',</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:Q27" si="0">"'"&amp;C21&amp;"',"</f>
+        <v>'Amplió la gama de productos ofrecidos',</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Aumentó la capacidad productiva',</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Aumentó la flexibilidad de la producción',</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Redujo el consumo de materias primas e insumos',</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Redujo el consumo de energía',</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Redujo los costos de la mano de obra',</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mejoró el aprovechamiento de las competencias del personal',</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Amplió la participación y creatividad de la fuerza laboral',</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Se mejoró la gestión de los procesos de innovación',</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Permitió mantener la participación de la empresa en el mercado',</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Amplió la participación de la empresa en el mercado',</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Permitió abrir nuevos mercados',</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mejoró el impacto sobre aspectos relacionados con el ambiente, salud y/o seguridad',</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Alcanzó regulaciones o estándares nacionales',</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Alcanzó regulaciones o estándares internacionales',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>"{name:'"&amp;A22&amp;"',  data:["</f>
+        <v>{name:'Alta',  data:[</v>
+      </c>
+      <c r="B28" t="str">
+        <f>B22&amp;","</f>
+        <v>65.6,</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:Q28" si="1">C22&amp;","</f>
+        <v>49.8,</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>50,</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>37,</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>22.4,</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>24.5,</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>22.6,</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>41,</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>38,</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>36.8,</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>68.6,</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>54.5,</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>41.7,</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>33.8,</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="1"/>
+        <v>24.9,</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>Q22&amp;"]},"</f>
+        <v>16.6]},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" ref="A29:A31" si="2">"{name:'"&amp;A23&amp;"',  data:["</f>
+        <v>{name:'Media',  data:[</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ref="B29:Q31" si="3">B23&amp;","</f>
+        <v>20.4,</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v>26.4,</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>25.2,</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>32.2,</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v>21.9,</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>23.1,</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>26.9,</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>34.9,</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>34.4,</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v>38,</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>20.3,</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v>29.6,</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>24.6,</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
+        <v>28.5,</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="3"/>
+        <v>16.7,</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ref="Q29:Q31" si="4">Q23&amp;"]},"</f>
+        <v>9.8]},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:'Baja',  data:[</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="3"/>
+        <v>6.3,</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>10.6,</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>13.2,</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>17.1,</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>24.8,</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>22.6,</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>24,</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>12,</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>15.9,</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="3"/>
+        <v>16.3,</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>7.2,</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="3"/>
+        <v>9.4,</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>19.8,</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="3"/>
+        <v>17.9,</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="3"/>
+        <v>12.8,</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="4"/>
+        <v>13.2]},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:'Irrelevante',  data:[</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v>7.7,</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v>13.2,</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v>11.5,</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>13.7,</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>30.8,</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>29.8,</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>26.4,</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>12,</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>11.8,</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v>8.9,</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>3.9,</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
+        <v>6.7,</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>14,</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="3"/>
+        <v>19.8,</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="3"/>
+        <v>45.7,</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="4"/>
+        <v>60.4]},</v>
       </c>
     </row>
   </sheetData>
@@ -2430,10 +4058,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2516,11 +4144,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
@@ -3016,7 +4644,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -3083,7 +4711,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -3150,7 +4778,7 @@
       <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
@@ -3374,7 +5002,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>

--- a/data/Datos 3era Infografía.xlsx
+++ b/data/Datos 3era Infografía.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades de innovacion" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Factores Alto No I+D" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Factores de no Innovar'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Factores de no Innovar'!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="252">
   <si>
     <t>Actividad</t>
   </si>
@@ -682,13 +682,121 @@
   </si>
   <si>
     <t>60.4</t>
+  </si>
+  <si>
+    <t>{name:'Pequeñas',  data:[</t>
+  </si>
+  <si>
+    <t>0.86,</t>
+  </si>
+  <si>
+    <t>0.73,</t>
+  </si>
+  <si>
+    <t>1.3,</t>
+  </si>
+  <si>
+    <t>1.4]},</t>
+  </si>
+  <si>
+    <t>{name:'Medianas',  data:[</t>
+  </si>
+  <si>
+    <t>0.43,</t>
+  </si>
+  <si>
+    <t>0.44,</t>
+  </si>
+  <si>
+    <t>1.1,</t>
+  </si>
+  <si>
+    <t>1]},</t>
+  </si>
+  <si>
+    <t>{name:'Grandes',  data:[</t>
+  </si>
+  <si>
+    <t>0.36,</t>
+  </si>
+  <si>
+    <t>0.3,</t>
+  </si>
+  <si>
+    <t>0.72,</t>
+  </si>
+  <si>
+    <t>1.2]},</t>
+  </si>
+  <si>
+    <t>55.5</t>
+  </si>
+  <si>
+    <t>49.2</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>43.8</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +816,14 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -742,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -752,6 +868,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,13 +1922,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2102,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,39 +2974,39 @@
         <v>{name:'A cualquier tipo de innovación',  data:[</v>
       </c>
       <c r="B33" t="str">
-        <f>B26&amp;","</f>
+        <f t="shared" ref="B33:J33" si="5">B26&amp;","</f>
         <v>17.3,</v>
       </c>
       <c r="C33" t="str">
-        <f>C26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>22.7,</v>
       </c>
       <c r="D33" t="str">
-        <f>D26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>27.7,</v>
       </c>
       <c r="E33" t="str">
-        <f>E26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>29.1,</v>
       </c>
       <c r="F33" t="str">
-        <f>F26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>38.3,</v>
       </c>
       <c r="G33" t="str">
-        <f>G26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>44.1,</v>
       </c>
       <c r="H33" t="str">
-        <f>H26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>48.9,</v>
       </c>
       <c r="I33" t="str">
-        <f>I26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>57.4,</v>
       </c>
       <c r="J33" t="str">
-        <f>J26&amp;","</f>
+        <f t="shared" si="5"/>
         <v>66.6,</v>
       </c>
       <c r="K33" t="str">
@@ -2900,39 +3020,39 @@
         <v>{name:'Producto',  data:[</v>
       </c>
       <c r="B34" t="str">
-        <f>B27&amp;","</f>
+        <f t="shared" ref="B34:J34" si="6">B27&amp;","</f>
         <v>58.1,</v>
       </c>
       <c r="C34" t="str">
-        <f>C27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>13.3,</v>
       </c>
       <c r="D34" t="str">
-        <f>D27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>29.5,</v>
       </c>
       <c r="E34" t="str">
-        <f>E27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>13.1,</v>
       </c>
       <c r="F34" t="str">
-        <f>F27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>12.8,</v>
       </c>
       <c r="G34" t="str">
-        <f>G27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>17.3,</v>
       </c>
       <c r="H34" t="str">
-        <f>H27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>16.7,</v>
       </c>
       <c r="I34" t="str">
-        <f>I27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>22.7,</v>
       </c>
       <c r="J34" t="str">
-        <f>J27&amp;","</f>
+        <f t="shared" si="6"/>
         <v>32.9,</v>
       </c>
       <c r="K34" t="str">
@@ -2946,39 +3066,39 @@
         <v>{name:'Proceso',  data:[</v>
       </c>
       <c r="B35" t="str">
-        <f>B28&amp;","</f>
+        <f t="shared" ref="B35:J35" si="7">B28&amp;","</f>
         <v>43.9,</v>
       </c>
       <c r="C35" t="str">
-        <f>C28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>7,</v>
       </c>
       <c r="D35" t="str">
-        <f>D28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>44.6,</v>
       </c>
       <c r="E35" t="str">
-        <f>E28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>24.3,</v>
       </c>
       <c r="F35" t="str">
-        <f>F28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>24.3,</v>
       </c>
       <c r="G35" t="str">
-        <f>G28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>18.2,</v>
       </c>
       <c r="H35" t="str">
-        <f>H28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>21.6,</v>
       </c>
       <c r="I35" t="str">
-        <f>I28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>27.3,</v>
       </c>
       <c r="J35" t="str">
-        <f>J28&amp;","</f>
+        <f t="shared" si="7"/>
         <v>46.6,</v>
       </c>
       <c r="K35" t="str">
@@ -2992,39 +3112,39 @@
         <v>{name:'Organización',  data:[</v>
       </c>
       <c r="B36" t="str">
-        <f>B29&amp;","</f>
+        <f t="shared" ref="B36:J36" si="8">B29&amp;","</f>
         <v>20.3,</v>
       </c>
       <c r="C36" t="str">
-        <f>C29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>2.3,</v>
       </c>
       <c r="D36" t="str">
-        <f>D29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>7.9,</v>
       </c>
       <c r="E36" t="str">
-        <f>E29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>28.8,</v>
       </c>
       <c r="F36" t="str">
-        <f>F29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>26.8,</v>
       </c>
       <c r="G36" t="str">
-        <f>G29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>9.9,</v>
       </c>
       <c r="H36" t="str">
-        <f>H29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>6.1,</v>
       </c>
       <c r="I36" t="str">
-        <f>I29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>18.2,</v>
       </c>
       <c r="J36" t="str">
-        <f>J29&amp;","</f>
+        <f t="shared" si="8"/>
         <v>35.4,</v>
       </c>
       <c r="K36" t="str">
@@ -3038,39 +3158,39 @@
         <v>{name:'Comercialización',  data:[</v>
       </c>
       <c r="B37" t="str">
-        <f>B30&amp;","</f>
+        <f t="shared" ref="B37:J37" si="9">B30&amp;","</f>
         <v>25.9,</v>
       </c>
       <c r="C37" t="str">
-        <f>C30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>6.3,</v>
       </c>
       <c r="D37" t="str">
-        <f>D30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>9.2,</v>
       </c>
       <c r="E37" t="str">
-        <f>E30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>17.6,</v>
       </c>
       <c r="F37" t="str">
-        <f>F30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>16.7,</v>
       </c>
       <c r="G37" t="str">
-        <f>G30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>6.8,</v>
       </c>
       <c r="H37" t="str">
-        <f>H30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>4.5,</v>
       </c>
       <c r="I37" t="str">
-        <f>I30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>11.5,</v>
       </c>
       <c r="J37" t="str">
-        <f>J30&amp;","</f>
+        <f t="shared" si="9"/>
         <v>22.7,</v>
       </c>
       <c r="K37" t="str">
@@ -3087,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:Q27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,7 +3898,7 @@
         <v>65.6,</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:Q28" si="1">C22&amp;","</f>
+        <f t="shared" ref="C28:P28" si="1">C22&amp;","</f>
         <v>49.8,</v>
       </c>
       <c r="D28" t="str">
@@ -3844,7 +3964,7 @@
         <v>{name:'Media',  data:[</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" ref="B29:Q31" si="3">B23&amp;","</f>
+        <f t="shared" ref="B29:P31" si="3">B23&amp;","</f>
         <v>20.4,</v>
       </c>
       <c r="C29" t="str">
@@ -4055,10 +4175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4134,6 +4254,57 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4142,16 +4313,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.25">
@@ -4175,447 +4350,453 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>26.6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>63.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>41</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>51.3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>70</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>38.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>53.8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>26.7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>63.3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>58.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>23.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>66.7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>58.9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>16.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>73.400000000000006</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>58.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>33.4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>56.7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>30.7</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>61.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>23.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>66.7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>30.7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>61.6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>23.3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>66.599999999999994</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>30.7</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>61.6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>26.6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>63.3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>28.2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>64.099999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>26.6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>63.3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>25.6</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>66.599999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>60</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>23.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>69.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>26.7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>63.4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>23.1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>69.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>20</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>70</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>23.1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>69.3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>43.3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>46.7</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>20.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>71.8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>13.4</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>74.3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>18</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>74.3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>23.3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>66.7</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>74.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>26.7</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>63.3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>15.4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>76.900000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>70</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>15.4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>76.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>3.3</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>86.6</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>15.4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>76.900000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>16.7</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>73.3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>5.2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>87.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>80</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>87.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>30</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>60</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>2.6</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>89.8</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>"{name:'"&amp;B2&amp;"',  data:["</f>
+        <v>{name:'Carencia de infraestructura física',  data:[</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
+  <autoFilter ref="A1:F23">
     <sortState ref="A2:F23">
       <sortCondition descending="1" ref="E1"/>
     </sortState>
@@ -4633,15 +4814,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,7 +4832,7 @@
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -4658,44 +4840,135 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B4">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B5">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B6">
-        <v>33.299999999999997</v>
+      <c r="B6" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="5">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>"'"&amp;B10&amp;"',"</f>
+        <v>'Carencia de infraestructura física',</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:H13" si="0">"'"&amp;C10&amp;"',"</f>
+        <v>'Escaso desarrollo de instituciones relacionadas con ciencia y tecnología',</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Reducido tamaño del mercado',</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Políticas públicas inadecuadas para la promoción de C&amp;T',</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Períodos de retorno inconvenientes',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"{name:'"&amp;A11&amp;"',  data:["</f>
+        <v>{name:'Factor',  data:[</v>
+      </c>
+      <c r="B14" t="str">
+        <f>B11&amp;","</f>
+        <v>41,</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:F14" si="1">C11&amp;","</f>
+        <v>38.5,</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>33.3,</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>33.3,</v>
+      </c>
+      <c r="F14" t="str">
+        <f>F11&amp;"]}"</f>
+        <v>33.3]}</v>
       </c>
     </row>
   </sheetData>
@@ -4705,19 +4978,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -4725,44 +4998,132 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>43.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B6">
-        <v>26.7</v>
+      <c r="B6" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>"'"&amp;B10&amp;"',"</f>
+        <v>'Falta de recursos financieros propios',</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:F13" si="0">"'"&amp;C10&amp;"',"</f>
+        <v>'Facilidad de imitación por terceros',</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Escasez de personal capacitado',</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>'No consideraron necesario hacer ninguna innovación',</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Reducido tamaño del mercado',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"{name:'"&amp;A11&amp;"',  data:["</f>
+        <v>{name:'Porcentaje',  data:[</v>
+      </c>
+      <c r="B14" t="str">
+        <f>B11&amp;","</f>
+        <v>43.3,</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:F14" si="1">C11&amp;","</f>
+        <v>33.4,</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>30,</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>30,</v>
+      </c>
+      <c r="F14" t="str">
+        <f>F11&amp;"]}"</f>
+        <v>26.7]}</v>
       </c>
     </row>
   </sheetData>
@@ -4775,14 +5136,15 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4996,16 +5358,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,6 +5502,266 @@
         <v>123</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>"'"&amp;B18&amp;"',"</f>
+        <v>'I+D es demasiado caro para la empresa',</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ref="C26:L26" si="0">"'"&amp;C18&amp;"',"</f>
+        <v>'Falta de apoyo del Sector Público',</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Falta de acceso a crédito',</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Las fuentes externas de información son suficientes para la innovación',</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mercados pequeños que no permiten la recuperación de las inversiones en I+D',</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Las inversiones en I+D son muy riesgosas',</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Dificultades para apropiarse de los resultados de la I+D',</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>'I+D no es necesario para las actividades de innovación de la empresa',</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>'La empresa no innova',</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Las universidades substituyen la I+D de la empresa',</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Los centros e institutos de investigación públicos substituyen la I+D de la empresa',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>"{name:'"&amp;A19&amp;"',  data:["</f>
+        <v>{name:'Empresas que Invirtieron en I+D',  data:[</v>
+      </c>
+      <c r="B27" t="str">
+        <f>B19&amp;","</f>
+        <v>55,9,</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:K27" si="1">C19&amp;","</f>
+        <v>55.5,</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>48.8,</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>45.6,</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>43.8,</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>37.4,</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>32.4,</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>21.5,</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>17.4,</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>13.4,</v>
+      </c>
+      <c r="L27" t="str">
+        <f>L19&amp;"]},"</f>
+        <v>10.4]},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>"{name:'"&amp;A20&amp;"',  data:["</f>
+        <v>{name:'Empresas que No Invirtieron en I+D',  data:[</v>
+      </c>
+      <c r="B28" t="str">
+        <f>B20&amp;","</f>
+        <v>56,0,</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:K28" si="2">C20&amp;","</f>
+        <v>49.2,</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>42.1,</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>34.4,</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>44.0,</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>34.4,</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>38.0,</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>34.4,</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>36.8,</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>12.8,</v>
+      </c>
+      <c r="L28" t="str">
+        <f>L20&amp;"]},"</f>
+        <v>6.4]},</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Datos 3era Infografía.xlsx
+++ b/data/Datos 3era Infografía.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inco_micitt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eladiomontero\Documents\Grupo Inco\inco_micitt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades de innovacion" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Factores de no Innovar'!$A$1:$F$23</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="193">
   <si>
     <t>Actividad</t>
   </si>
@@ -552,138 +552,6 @@
     <t>7.2</t>
   </si>
   <si>
-    <t>65.6</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>22.6</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>68.6</t>
-  </si>
-  <si>
-    <t>54.5</t>
-  </si>
-  <si>
-    <t>41.7</t>
-  </si>
-  <si>
-    <t>33.8</t>
-  </si>
-  <si>
-    <t>24.9</t>
-  </si>
-  <si>
-    <t>16.6</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>26.4</t>
-  </si>
-  <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>32.2</t>
-  </si>
-  <si>
-    <t>21.9</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>34.4</t>
-  </si>
-  <si>
-    <t>29.6</t>
-  </si>
-  <si>
-    <t>24.6</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>24.8</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>19.8</t>
-  </si>
-  <si>
-    <t>17.9</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>29.8</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>60.4</t>
-  </si>
-  <si>
     <t>{name:'Pequeñas',  data:[</t>
   </si>
   <si>
@@ -727,51 +595,6 @@
   </si>
   <si>
     <t>1.2]},</t>
-  </si>
-  <si>
-    <t>55.5</t>
-  </si>
-  <si>
-    <t>49.2</t>
-  </si>
-  <si>
-    <t>48.8</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>45.6</t>
-  </si>
-  <si>
-    <t>43.8</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>6.4</t>
   </si>
   <si>
     <t>38.5</t>
@@ -795,7 +618,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -891,9 +714,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -930,7 +753,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1009,7 +832,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7D1F-4ABE-84BD-95BB13F3DF52}"/>
             </c:ext>
@@ -1084,7 +907,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7D1F-4ABE-84BD-95BB13F3DF52}"/>
             </c:ext>
@@ -1159,7 +982,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7D1F-4ABE-84BD-95BB13F3DF52}"/>
             </c:ext>
@@ -1174,11 +997,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1961841088"/>
-        <c:axId val="1961843808"/>
+        <c:axId val="-860511408"/>
+        <c:axId val="-860510864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1961841088"/>
+        <c:axId val="-860511408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,10 +1041,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961843808"/>
+        <c:crossAx val="-860510864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1961843808"/>
+        <c:axId val="-860510864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,10 +1100,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961841088"/>
+        <c:crossAx val="-860511408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1319,7 +1142,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1349,7 +1172,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1936,7 +1759,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2049,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -3205,13 +3028,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
@@ -3537,7 +3360,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -3555,617 +3378,6 @@
       </c>
       <c r="F17">
         <v>60.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22">
-        <v>41</v>
-      </c>
-      <c r="J22">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>177</v>
-      </c>
-      <c r="L22" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" t="s">
-        <v>179</v>
-      </c>
-      <c r="N22" t="s">
-        <v>180</v>
-      </c>
-      <c r="O22" t="s">
-        <v>181</v>
-      </c>
-      <c r="P22" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" t="s">
-        <v>190</v>
-      </c>
-      <c r="I23" t="s">
-        <v>191</v>
-      </c>
-      <c r="J23" t="s">
-        <v>192</v>
-      </c>
-      <c r="K23">
-        <v>38</v>
-      </c>
-      <c r="L23" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" t="s">
-        <v>193</v>
-      </c>
-      <c r="N23" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" t="s">
-        <v>195</v>
-      </c>
-      <c r="P23" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24">
-        <v>24</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" t="s">
-        <v>171</v>
-      </c>
-      <c r="M24" t="s">
-        <v>203</v>
-      </c>
-      <c r="N24" t="s">
-        <v>204</v>
-      </c>
-      <c r="O24" t="s">
-        <v>205</v>
-      </c>
-      <c r="P24" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" t="s">
-        <v>209</v>
-      </c>
-      <c r="H25" t="s">
-        <v>185</v>
-      </c>
-      <c r="I25">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" t="s">
-        <v>212</v>
-      </c>
-      <c r="M25" t="s">
-        <v>213</v>
-      </c>
-      <c r="N25">
-        <v>14</v>
-      </c>
-      <c r="O25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P25" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
-        <f>"'"&amp;B21&amp;"',"</f>
-        <v>'Mejoró la calidad de los productos',</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" ref="C27:Q27" si="0">"'"&amp;C21&amp;"',"</f>
-        <v>'Amplió la gama de productos ofrecidos',</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Aumentó la capacidad productiva',</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Aumentó la flexibilidad de la producción',</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Redujo el consumo de materias primas e insumos',</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Redujo el consumo de energía',</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Redujo los costos de la mano de obra',</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mejoró el aprovechamiento de las competencias del personal',</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Amplió la participación y creatividad de la fuerza laboral',</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Se mejoró la gestión de los procesos de innovación',</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Permitió mantener la participación de la empresa en el mercado',</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Amplió la participación de la empresa en el mercado',</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Permitió abrir nuevos mercados',</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mejoró el impacto sobre aspectos relacionados con el ambiente, salud y/o seguridad',</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Alcanzó regulaciones o estándares nacionales',</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="0"/>
-        <v>'Alcanzó regulaciones o estándares internacionales',</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>"{name:'"&amp;A22&amp;"',  data:["</f>
-        <v>{name:'Alta',  data:[</v>
-      </c>
-      <c r="B28" t="str">
-        <f>B22&amp;","</f>
-        <v>65.6,</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" ref="C28:P28" si="1">C22&amp;","</f>
-        <v>49.8,</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>50,</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>37,</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>22.4,</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>24.5,</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>22.6,</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>41,</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="1"/>
-        <v>38,</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
-        <v>36.8,</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v>68.6,</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="1"/>
-        <v>54.5,</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="1"/>
-        <v>41.7,</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="1"/>
-        <v>33.8,</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="1"/>
-        <v>24.9,</v>
-      </c>
-      <c r="Q28" t="str">
-        <f>Q22&amp;"]},"</f>
-        <v>16.6]},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" ref="A29:A31" si="2">"{name:'"&amp;A23&amp;"',  data:["</f>
-        <v>{name:'Media',  data:[</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" ref="B29:P31" si="3">B23&amp;","</f>
-        <v>20.4,</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="3"/>
-        <v>26.4,</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="3"/>
-        <v>25.2,</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="3"/>
-        <v>32.2,</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="3"/>
-        <v>21.9,</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="3"/>
-        <v>23.1,</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="3"/>
-        <v>26.9,</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>34.9,</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>34.4,</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="3"/>
-        <v>38,</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="3"/>
-        <v>20.3,</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="3"/>
-        <v>29.6,</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="3"/>
-        <v>24.6,</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="3"/>
-        <v>28.5,</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="3"/>
-        <v>16.7,</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" ref="Q29:Q31" si="4">Q23&amp;"]},"</f>
-        <v>9.8]},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:'Baja',  data:[</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="3"/>
-        <v>6.3,</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="3"/>
-        <v>10.6,</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="3"/>
-        <v>13.2,</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="3"/>
-        <v>17.1,</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="3"/>
-        <v>24.8,</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="3"/>
-        <v>22.6,</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="3"/>
-        <v>24,</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>12,</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>15.9,</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="3"/>
-        <v>16.3,</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="3"/>
-        <v>7.2,</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="3"/>
-        <v>9.4,</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="3"/>
-        <v>19.8,</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="3"/>
-        <v>17.9,</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="3"/>
-        <v>12.8,</v>
-      </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="4"/>
-        <v>13.2]},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:'Irrelevante',  data:[</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="3"/>
-        <v>7.7,</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="3"/>
-        <v>13.2,</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="3"/>
-        <v>11.5,</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="3"/>
-        <v>13.7,</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="3"/>
-        <v>30.8,</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="3"/>
-        <v>29.8,</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="3"/>
-        <v>26.4,</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="3"/>
-        <v>12,</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>11.8,</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="3"/>
-        <v>8.9,</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="3"/>
-        <v>3.9,</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="3"/>
-        <v>6.7,</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="3"/>
-        <v>14,</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="3"/>
-        <v>19.8,</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="3"/>
-        <v>45.7,</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="4"/>
-        <v>60.4]},</v>
       </c>
     </row>
   </sheetData>
@@ -4181,7 +3393,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4256,53 +3468,53 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +3531,7 @@
       <selection activeCell="A2" sqref="A2:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
@@ -4826,7 +4038,7 @@
       <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -4848,7 +4060,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4856,7 +4068,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,7 +4076,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4872,7 +4084,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4880,7 +4092,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4911,16 +4123,16 @@
         <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4929,7 +4141,7 @@
         <v>'Carencia de infraestructura física',</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:H13" si="0">"'"&amp;C10&amp;"',"</f>
+        <f t="shared" ref="C13:F13" si="0">"'"&amp;C10&amp;"',"</f>
         <v>'Escaso desarrollo de instituciones relacionadas con ciencia y tecnología',</v>
       </c>
       <c r="D13" t="str">
@@ -4955,7 +4167,7 @@
         <v>41,</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14:F14" si="1">C11&amp;","</f>
+        <f t="shared" ref="C14:E14" si="1">C11&amp;","</f>
         <v>38.5,</v>
       </c>
       <c r="D14" t="str">
@@ -4980,11 +4192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -5003,7 +4215,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5011,7 +4223,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5035,7 +4247,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5063,10 +4275,10 @@
         <v>128</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="D11" s="5">
         <v>30</v>
@@ -5075,7 +4287,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,7 +4322,7 @@
         <v>43.3,</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14:F14" si="1">C11&amp;","</f>
+        <f t="shared" ref="C14:E14" si="1">C11&amp;","</f>
         <v>33.4,</v>
       </c>
       <c r="D14" t="str">
@@ -5139,7 +4351,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
@@ -5358,13 +4570,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -5385,381 +4597,121 @@
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
+      <c r="B2">
+        <v>55.9</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
+      <c r="B3">
+        <v>55.5</v>
+      </c>
+      <c r="C3">
+        <v>49.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
+      <c r="B4">
+        <v>48.8</v>
+      </c>
+      <c r="C4">
+        <v>42.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
+      <c r="B5">
+        <v>45.6</v>
+      </c>
+      <c r="C5">
+        <v>34.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
+      <c r="B6">
+        <v>43.8</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
+      <c r="B7">
+        <v>37.4</v>
+      </c>
+      <c r="C7">
+        <v>34.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
+      <c r="B8">
+        <v>32.4</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
+      <c r="B9">
+        <v>21.5</v>
+      </c>
+      <c r="C9">
+        <v>34.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
+      <c r="B10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C10">
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
+      <c r="B11">
+        <v>13.4</v>
+      </c>
+      <c r="C11">
+        <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" t="s">
-        <v>238</v>
-      </c>
-      <c r="H19" t="s">
-        <v>239</v>
-      </c>
-      <c r="I19" t="s">
-        <v>241</v>
-      </c>
-      <c r="J19" t="s">
-        <v>242</v>
-      </c>
-      <c r="K19" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" t="s">
-        <v>192</v>
-      </c>
-      <c r="J20" t="s">
-        <v>177</v>
-      </c>
-      <c r="K20" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
-        <f>"'"&amp;B18&amp;"',"</f>
-        <v>'I+D es demasiado caro para la empresa',</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" ref="C26:L26" si="0">"'"&amp;C18&amp;"',"</f>
-        <v>'Falta de apoyo del Sector Público',</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>'Falta de acceso a crédito',</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>'Las fuentes externas de información son suficientes para la innovación',</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mercados pequeños que no permiten la recuperación de las inversiones en I+D',</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>'Las inversiones en I+D son muy riesgosas',</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>'Dificultades para apropiarse de los resultados de la I+D',</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>'I+D no es necesario para las actividades de innovación de la empresa',</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>'La empresa no innova',</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="0"/>
-        <v>'Las universidades substituyen la I+D de la empresa',</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v>'Los centros e institutos de investigación públicos substituyen la I+D de la empresa',</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>"{name:'"&amp;A19&amp;"',  data:["</f>
-        <v>{name:'Empresas que Invirtieron en I+D',  data:[</v>
-      </c>
-      <c r="B27" t="str">
-        <f>B19&amp;","</f>
-        <v>55,9,</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" ref="C27:K27" si="1">C19&amp;","</f>
-        <v>55.5,</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>48.8,</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>45.6,</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>43.8,</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>37.4,</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>32.4,</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v>21.5,</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="1"/>
-        <v>17.4,</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v>13.4,</v>
-      </c>
-      <c r="L27" t="str">
-        <f>L19&amp;"]},"</f>
-        <v>10.4]},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>"{name:'"&amp;A20&amp;"',  data:["</f>
-        <v>{name:'Empresas que No Invirtieron en I+D',  data:[</v>
-      </c>
-      <c r="B28" t="str">
-        <f>B20&amp;","</f>
-        <v>56,0,</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" ref="C28:K28" si="2">C20&amp;","</f>
-        <v>49.2,</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>42.1,</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>34.4,</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="2"/>
-        <v>44.0,</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="2"/>
-        <v>34.4,</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>38.0,</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>34.4,</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="2"/>
-        <v>36.8,</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v>12.8,</v>
-      </c>
-      <c r="L28" t="str">
-        <f>L20&amp;"]},"</f>
-        <v>6.4]},</v>
+      <c r="B12">
+        <v>10.4</v>
+      </c>
+      <c r="C12">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
